--- a/outputs/invoice_麦格米特_Silvassa.xlsx
+++ b/outputs/invoice_麦格米特_Silvassa.xlsx
@@ -50,7 +50,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -64,11 +64,32 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -78,6 +99,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,19 +569,19 @@
       <c r="E2" s="3" t="n">
         <v>7000</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="4" t="n">
         <v>1.86</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>1.19</v>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>F01</t>
         </is>
@@ -579,15 +609,13 @@
       <c r="E3" s="3" t="n">
         <v>3000</v>
       </c>
-      <c r="F3" s="3" t="inlineStr"/>
-      <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
       <c r="I3" s="3" t="n">
         <v>0.51</v>
       </c>
-      <c r="J3" s="3" t="inlineStr"/>
+      <c r="J3" s="5" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
@@ -611,19 +639,19 @@
       <c r="E4" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="4" t="n">
         <v>0.58</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>F22</t>
         </is>
@@ -651,15 +679,13 @@
       <c r="E5" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="inlineStr"/>
-      <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="6" t="n"/>
       <c r="I5" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="J5" s="3" t="inlineStr"/>
+      <c r="J5" s="6" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -683,15 +709,13 @@
       <c r="E6" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="inlineStr"/>
-      <c r="G6" s="3" t="inlineStr"/>
-      <c r="H6" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F6" s="6" t="n"/>
+      <c r="G6" s="6" t="n"/>
+      <c r="H6" s="6" t="n"/>
       <c r="I6" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="J6" s="3" t="inlineStr"/>
+      <c r="J6" s="6" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
@@ -715,15 +739,13 @@
       <c r="E7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="3" t="inlineStr"/>
-      <c r="G7" s="3" t="inlineStr"/>
-      <c r="H7" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F7" s="6" t="n"/>
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" s="6" t="n"/>
       <c r="I7" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="J7" s="3" t="inlineStr"/>
+      <c r="J7" s="6" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
@@ -747,15 +769,13 @@
       <c r="E8" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F8" s="3" t="inlineStr"/>
-      <c r="G8" s="3" t="inlineStr"/>
-      <c r="H8" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F8" s="6" t="n"/>
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="6" t="n"/>
       <c r="I8" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="J8" s="3" t="inlineStr"/>
+      <c r="J8" s="6" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
@@ -779,15 +799,13 @@
       <c r="E9" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="F9" s="3" t="inlineStr"/>
-      <c r="G9" s="3" t="inlineStr"/>
-      <c r="H9" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F9" s="6" t="n"/>
+      <c r="G9" s="6" t="n"/>
+      <c r="H9" s="6" t="n"/>
       <c r="I9" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J9" s="3" t="inlineStr"/>
+      <c r="J9" s="6" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
@@ -811,15 +829,13 @@
       <c r="E10" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="F10" s="3" t="inlineStr"/>
-      <c r="G10" s="3" t="inlineStr"/>
-      <c r="H10" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F10" s="6" t="n"/>
+      <c r="G10" s="6" t="n"/>
+      <c r="H10" s="6" t="n"/>
       <c r="I10" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J10" s="3" t="inlineStr"/>
+      <c r="J10" s="6" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
@@ -843,15 +859,13 @@
       <c r="E11" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="F11" s="3" t="inlineStr"/>
-      <c r="G11" s="3" t="inlineStr"/>
-      <c r="H11" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F11" s="6" t="n"/>
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="6" t="n"/>
       <c r="I11" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="J11" s="3" t="inlineStr"/>
+      <c r="J11" s="6" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
@@ -875,15 +889,13 @@
       <c r="E12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="3" t="inlineStr"/>
-      <c r="G12" s="3" t="inlineStr"/>
-      <c r="H12" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F12" s="6" t="n"/>
+      <c r="G12" s="6" t="n"/>
+      <c r="H12" s="6" t="n"/>
       <c r="I12" s="3" t="n">
         <v>0.01</v>
       </c>
-      <c r="J12" s="3" t="inlineStr"/>
+      <c r="J12" s="6" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
@@ -907,17 +919,25 @@
       <c r="E13" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="F13" s="3" t="inlineStr"/>
-      <c r="G13" s="3" t="inlineStr"/>
-      <c r="H13" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="5" t="n"/>
+      <c r="H13" s="5" t="n"/>
       <c r="I13" s="3" t="n">
         <v>0.03</v>
       </c>
-      <c r="J13" s="3" t="inlineStr"/>
+      <c r="J13" s="5" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F4:F13"/>
+    <mergeCell ref="G4:G13"/>
+    <mergeCell ref="J4:J13"/>
+    <mergeCell ref="H4:H13"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/outputs/invoice_麦格米特_Silvassa.xlsx
+++ b/outputs/invoice_麦格米特_Silvassa.xlsx
@@ -1025,7 +1025,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H13" t="n">
